--- a/工作進度.xlsx
+++ b/工作進度.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F194A0FE-2CEB-5448-9A27-359ACB703F87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="14800" windowHeight="8020"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="27400" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,14 +118,25 @@
   </si>
   <si>
     <t>了解n-gram, skip-gram之間的差別，了解如何訓練模型，計算頻率權重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>將實際資料帶入code測試</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步code完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="m/d;@"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -173,9 +185,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -205,7 +218,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -297,6 +310,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -332,6 +362,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -507,24 +554,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="66.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="18">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -544,7 +591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>11.25</v>
       </c>
@@ -564,7 +611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>11.25</v>
       </c>
@@ -584,7 +631,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>11.25</v>
       </c>
@@ -604,7 +651,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>11.25</v>
       </c>
@@ -622,6 +669,26 @@
       </c>
       <c r="F5" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>43801</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/工作進度.xlsx
+++ b/工作進度.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F194A0FE-2CEB-5448-9A27-359ACB703F87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="27400" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,17 +125,29 @@
   </si>
   <si>
     <t>初步code完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溫舜元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用訓練的詞庫計算CNBC某些字詞出現的頻率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="m/d;@"/>
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -188,7 +199,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -218,7 +229,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -310,23 +321,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -362,23 +356,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -554,24 +531,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="66.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -591,7 +568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>11.25</v>
       </c>
@@ -611,7 +588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>11.25</v>
       </c>
@@ -631,7 +608,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>11.25</v>
       </c>
@@ -651,7 +628,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>11.25</v>
       </c>
@@ -671,7 +648,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>43801</v>
       </c>
@@ -689,6 +666,26 @@
       </c>
       <c r="F6" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>12.2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/工作進度.xlsx
+++ b/工作進度.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3BAC07-6D27-C44A-93C4-354E80819311}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7020"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,17 +138,33 @@
   </si>
   <si>
     <t>code完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儲存VIX資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寫好初步code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爬完cnbc從2007至今所有新聞標題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究如何爬amazon相關更久遠以前的新聞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -229,7 +246,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -321,6 +338,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -356,6 +390,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -531,24 +582,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="66.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="18">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -568,7 +619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>11.25</v>
       </c>
@@ -588,7 +639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>11.25</v>
       </c>
@@ -608,7 +659,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>11.25</v>
       </c>
@@ -628,7 +679,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>11.25</v>
       </c>
@@ -648,7 +699,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>43801</v>
       </c>
@@ -668,7 +719,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>12.2</v>
       </c>
@@ -686,6 +737,46 @@
       </c>
       <c r="F7" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>12.2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>12.2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/工作進度.xlsx
+++ b/工作進度.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3BAC07-6D27-C44A-93C4-354E80819311}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C94E7F-C66F-ED44-B3B8-C5F5D4E2DE0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,6 +154,26 @@
   </si>
   <si>
     <t>研究如何爬amazon相關更久遠以前的新聞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整、篩選資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美化資料訓練模型的成果與檢查細節問題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型結果符合預期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成書面報告與影片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -583,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -779,6 +799,66 @@
         <v>34</v>
       </c>
     </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>12.9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>12.16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>12.23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/工作進度.xlsx
+++ b/工作進度.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E6EF18-DC43-EC45-BD46-C81E39AF4D1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,10 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>爬完cnbc從2007至今所有新聞標題</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>研究如何爬amazon相關更久遠以前的新聞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,17 +186,29 @@
   </si>
   <si>
     <t>工作內容完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爬蟲 用selenium爬CNBC中market和finance相關的新聞標題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爬完cnbc從2007至今所有新聞標題及內文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更快速的爬完cnbc從2007至今所有新聞標題</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -281,7 +290,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -373,6 +382,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -408,6 +434,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -583,24 +626,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="66.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="18">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -620,7 +663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>11.25</v>
       </c>
@@ -640,7 +683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>11.25</v>
       </c>
@@ -660,7 +703,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>11.25</v>
       </c>
@@ -680,7 +723,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>11.25</v>
       </c>
@@ -700,7 +743,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>43801</v>
       </c>
@@ -720,7 +763,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>12.2</v>
       </c>
@@ -737,10 +780,10 @@
         <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>12.2</v>
       </c>
@@ -760,7 +803,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>12.2</v>
       </c>
@@ -774,33 +817,33 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>12.9</v>
       </c>
       <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>41</v>
       </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>42</v>
       </c>
-      <c r="F10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>12.9</v>
       </c>
@@ -814,13 +857,13 @@
         <v>8</v>
       </c>
       <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
         <v>34</v>
       </c>
-      <c r="F11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>12.16</v>
       </c>
@@ -834,13 +877,13 @@
         <v>8</v>
       </c>
       <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
         <v>36</v>
       </c>
-      <c r="F12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12.23</v>
       </c>
@@ -854,10 +897,30 @@
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>12.9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/工作進度.xlsx
+++ b/工作進度.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E6EF18-DC43-EC45-BD46-C81E39AF4D1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCC1D69-D0D0-C641-9ECB-31DD53440290}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,6 +198,22 @@
   </si>
   <si>
     <t>更快速的爬完cnbc從2007至今所有新聞標題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匯入VIX month data.csv檔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匯入爬蟲抓取的標題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>將爬蟲標題轉成csv匯入mongoDB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成書面報告及影片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -627,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -923,6 +939,46 @@
         <v>36</v>
       </c>
     </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>12.16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>12.23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
